--- a/data/HR_Dataset_Dirty.xlsx
+++ b/data/HR_Dataset_Dirty.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Ellicium\DW assignment - Loparex\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vamsi\Desktop\DataWarehousingAssignment\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E78F04C-9D63-4D64-A743-90337BE4E33C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F862F2-30D9-4DF3-A95C-AC61011951D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="59">
   <si>
     <t>EmployeeID</t>
   </si>
@@ -194,6 +194,9 @@
   </si>
   <si>
     <t>Active</t>
+  </si>
+  <si>
+    <t>Employee 1021</t>
   </si>
 </sst>
 </file>
@@ -252,11 +255,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -561,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1148,6 +1152,35 @@
         <v>56</v>
       </c>
     </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>1021</v>
+      </c>
+      <c r="B23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23">
+        <v>2003</v>
+      </c>
+      <c r="G23">
+        <v>94088</v>
+      </c>
+      <c r="H23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E24" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/HR_Dataset_Dirty.xlsx
+++ b/data/HR_Dataset_Dirty.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vamsi\Desktop\DataWarehousingAssignment\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Ellicium\DW assignment - Loparex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F862F2-30D9-4DF3-A95C-AC61011951D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E78F04C-9D63-4D64-A743-90337BE4E33C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="58">
   <si>
     <t>EmployeeID</t>
   </si>
@@ -194,9 +194,6 @@
   </si>
   <si>
     <t>Active</t>
-  </si>
-  <si>
-    <t>Employee 1021</t>
   </si>
 </sst>
 </file>
@@ -255,12 +252,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -565,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1152,35 +1148,6 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>1021</v>
-      </c>
-      <c r="B23" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" t="s">
-        <v>34</v>
-      </c>
-      <c r="E23" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23">
-        <v>2003</v>
-      </c>
-      <c r="G23">
-        <v>94088</v>
-      </c>
-      <c r="H23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E24" s="2"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/HR_Dataset_Dirty.xlsx
+++ b/data/HR_Dataset_Dirty.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Ellicium\DW assignment - Loparex\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vamsi\Desktop\DataWarehousingAssignment\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E78F04C-9D63-4D64-A743-90337BE4E33C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62917E97-EF52-4FF9-B3F6-329C5137E53B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -564,7 +564,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
